--- a/GLOBAL/Impactos Cambio Climático/Evolución del Mínimo de Hielo Ártico 1979-2018.xlsx
+++ b/GLOBAL/Impactos Cambio Climático/Evolución del Mínimo de Hielo Ártico 1979-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Desktop\DI\DATAICC\Glaciares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Impactos Cambio Climático\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{94F86988-392B-45BE-B3F3-90FE9D6C8948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFA05B9-FE11-444B-A2A8-36424DAF03A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="3" r:id="rId1"/>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Superficie</t>
-  </si>
   <si>
     <t>Fuente:"NSIDC/NASA"</t>
   </si>
@@ -57,11 +54,14 @@
   <si>
     <t>Subtitulo:"Superficie en septiembre de cada año"</t>
   </si>
+  <si>
+    <t>Superficie (km2)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,9 +652,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Evolución del Mínimo de Hielo Ártico</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1761,11 +1758,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Superficie_hielo_artico_MUNDO" displayName="Superficie_hielo_artico_MUNDO" ref="A1:B41" totalsRowShown="0">
-  <autoFilter ref="A1:B41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Superficie_hielo_artico_MUNDO" displayName="Superficie_hielo_artico_MUNDO" ref="A1:B41" totalsRowShown="0">
+  <autoFilter ref="A1:B41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Año"/>
-    <tableColumn id="3" name="Superficie"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Año"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Superficie (km2)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2067,11 +2064,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,10 +2078,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2409,52 +2406,52 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
